--- a/docs/需规/法律咨询小程序需规0.2.xlsx
+++ b/docs/需规/法律咨询小程序需规0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevelopProject\teamwork\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevelopProject\teamwork\docs\需规\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,6 +18,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+buyony 待提交去掉</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
@@ -153,15 +189,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户可以查看当前问题的进度有(待提交/已提交待处理/正在处理/处理完成)并查看问题回复内容，若为电话回复则没有回复内容。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>查看带回复的问题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>律师可以查看当前待处理的问题，并选择问题进行处理，处理方式有在线问题留言回复与电话联系</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +399,38 @@
   </si>
   <si>
     <t>律师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户可以查看当前问题的进度有(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待提交/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已提交待处理/正在处理/处理完成)并查看问题回复内容，若为电话回复则没有回复内容。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>律师可以查看当前待处理的问题，并选择问题进行处理，处理方式有在线问题留言回复与电话联系/其他</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +500,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +543,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -475,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,47 +584,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -810,11 +904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="A2:G29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -852,499 +946,499 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>61</v>
+      <c r="F2" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>57</v>
+      <c r="F3" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>60</v>
+      <c r="F4" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>62</v>
+      <c r="E5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>72</v>
+      <c r="F6" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>71</v>
+      <c r="D7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>56</v>
+      <c r="E8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>68</v>
+      <c r="E9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>69</v>
+      <c r="F10" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>69</v>
+      <c r="F11" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="17">
         <v>5</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>59</v>
+      <c r="F14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>70</v>
+      <c r="E16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A17" s="15">
+      <c r="A17" s="17">
         <v>6</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
+      <c r="E17" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
+      <c r="A19" s="13">
         <v>7</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>58</v>
+      <c r="B19" s="17"/>
+      <c r="C19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A20" s="20">
+      <c r="A20" s="13">
         <v>8</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>57</v>
+      <c r="F20" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A21" s="20">
+      <c r="A21" s="13">
         <v>9</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>73</v>
+      <c r="F21" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="6"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="6"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A24" s="20">
+      <c r="A24" s="13">
         <v>10</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>91</v>
+      <c r="D24" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A25" s="20">
+      <c r="A25" s="13">
         <v>11</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>91</v>
+      <c r="B25" s="17"/>
+      <c r="C25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A26" s="20">
+      <c r="A26" s="13">
         <v>12</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>91</v>
+      <c r="B26" s="17"/>
+      <c r="C26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A27" s="20">
+      <c r="A27" s="13">
         <v>13</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="19" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A28" s="13">
+        <v>14</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A29" s="13">
+        <v>15</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A28" s="20">
-        <v>14</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A29" s="20">
-        <v>15</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>70</v>
+      <c r="F29" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1427,32 +1521,32 @@
     </row>
     <row r="47" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
-      <c r="B47" s="9"/>
+      <c r="B47" s="8"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="8"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="9"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="8"/>
+      <c r="E50" s="11"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="9"/>
+      <c r="B51" s="8"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
@@ -1461,98 +1555,98 @@
       <c r="B52" s="3"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="K52" s="10"/>
+      <c r="K52" s="19"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
-      <c r="K53" s="8"/>
+      <c r="K53" s="20"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K54" s="8"/>
+      <c r="K54" s="20"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K55" s="8"/>
+      <c r="K55" s="20"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K56" s="8"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K57" s="8"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K58" s="8"/>
+      <c r="K58" s="20"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K59" s="8"/>
+      <c r="K59" s="20"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K60" s="8"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K61" s="8"/>
+      <c r="K61" s="20"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K62" s="8"/>
+      <c r="K62" s="20"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K63" s="8"/>
+      <c r="K63" s="20"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K64" s="8"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="11:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K65" s="8"/>
+      <c r="K65" s="20"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
     <row r="66" spans="11:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K66" s="8"/>
+      <c r="K66" s="20"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
     <row r="67" spans="11:14" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="K67" s="8"/>
+      <c r="K67" s="20"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -1565,7 +1659,7 @@
     </row>
     <row r="82" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
-      <c r="B82" s="10"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -1574,174 +1668,185 @@
     </row>
     <row r="83" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="10"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="10"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K52:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B82:B103"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C102:C103"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="C8:C11"/>
@@ -1752,22 +1857,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B82:B103"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="C102:C103"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K52:K61"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="K64:K67"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>